--- a/stock_historical_data/1wk/KSCL.NS.xlsx
+++ b/stock_historical_data/1wk/KSCL.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R875"/>
+  <dimension ref="A1:R910"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -5395,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
@@ -49413,7 +49413,9 @@
       <c r="Q874" t="n">
         <v>0</v>
       </c>
-      <c r="R874" t="inlineStr"/>
+      <c r="R874" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="875">
       <c r="A875" s="2" t="n">
@@ -49467,7 +49469,1829 @@
       <c r="Q875" t="n">
         <v>0</v>
       </c>
-      <c r="R875" t="inlineStr"/>
+      <c r="R875" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B876" t="n">
+        <v>929.7116880635383</v>
+      </c>
+      <c r="C876" t="n">
+        <v>975.638115582977</v>
+      </c>
+      <c r="D876" t="n">
+        <v>915.9934202781791</v>
+      </c>
+      <c r="E876" t="n">
+        <v>968.3316040039062</v>
+      </c>
+      <c r="F876" t="inlineStr"/>
+      <c r="G876" t="n">
+        <v>442766</v>
+      </c>
+      <c r="H876" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I876" t="n">
+        <v>7</v>
+      </c>
+      <c r="J876" t="n">
+        <v>1</v>
+      </c>
+      <c r="K876" t="n">
+        <v>0</v>
+      </c>
+      <c r="L876" t="n">
+        <v>0</v>
+      </c>
+      <c r="M876" t="n">
+        <v>0</v>
+      </c>
+      <c r="N876" t="n">
+        <v>27</v>
+      </c>
+      <c r="O876" t="n">
+        <v>0</v>
+      </c>
+      <c r="P876" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q876" t="n">
+        <v>0</v>
+      </c>
+      <c r="R876" t="inlineStr"/>
+    </row>
+    <row r="877">
+      <c r="A877" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B877" t="n">
+        <v>968.3316131651985</v>
+      </c>
+      <c r="C877" t="n">
+        <v>1012.916059731577</v>
+      </c>
+      <c r="D877" t="n">
+        <v>962.2677600213299</v>
+      </c>
+      <c r="E877" t="n">
+        <v>968.2819213867188</v>
+      </c>
+      <c r="F877" t="inlineStr"/>
+      <c r="G877" t="n">
+        <v>959111</v>
+      </c>
+      <c r="H877" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I877" t="n">
+        <v>7</v>
+      </c>
+      <c r="J877" t="n">
+        <v>8</v>
+      </c>
+      <c r="K877" t="n">
+        <v>0</v>
+      </c>
+      <c r="L877" t="n">
+        <v>0</v>
+      </c>
+      <c r="M877" t="n">
+        <v>0</v>
+      </c>
+      <c r="N877" t="n">
+        <v>28</v>
+      </c>
+      <c r="O877" t="n">
+        <v>0</v>
+      </c>
+      <c r="P877" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q877" t="n">
+        <v>0</v>
+      </c>
+      <c r="R877" t="inlineStr"/>
+    </row>
+    <row r="878">
+      <c r="A878" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B878" t="n">
+        <v>973.1529540070815</v>
+      </c>
+      <c r="C878" t="n">
+        <v>1001.732704840964</v>
+      </c>
+      <c r="D878" t="n">
+        <v>942.734121932697</v>
+      </c>
+      <c r="E878" t="n">
+        <v>956.8003540039062</v>
+      </c>
+      <c r="F878" t="inlineStr"/>
+      <c r="G878" t="n">
+        <v>572649</v>
+      </c>
+      <c r="H878" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I878" t="n">
+        <v>7</v>
+      </c>
+      <c r="J878" t="n">
+        <v>15</v>
+      </c>
+      <c r="K878" t="n">
+        <v>0</v>
+      </c>
+      <c r="L878" t="n">
+        <v>0</v>
+      </c>
+      <c r="M878" t="n">
+        <v>0</v>
+      </c>
+      <c r="N878" t="n">
+        <v>29</v>
+      </c>
+      <c r="O878" t="n">
+        <v>0</v>
+      </c>
+      <c r="P878" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q878" t="n">
+        <v>0</v>
+      </c>
+      <c r="R878" t="inlineStr"/>
+    </row>
+    <row r="879">
+      <c r="A879" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B879" t="n">
+        <v>955.3092334208025</v>
+      </c>
+      <c r="C879" t="n">
+        <v>1109.291984284342</v>
+      </c>
+      <c r="D879" t="n">
+        <v>945.3684505548212</v>
+      </c>
+      <c r="E879" t="n">
+        <v>1054.269775390625</v>
+      </c>
+      <c r="F879" t="inlineStr"/>
+      <c r="G879" t="n">
+        <v>5450965</v>
+      </c>
+      <c r="H879" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I879" t="n">
+        <v>7</v>
+      </c>
+      <c r="J879" t="n">
+        <v>22</v>
+      </c>
+      <c r="K879" t="n">
+        <v>0</v>
+      </c>
+      <c r="L879" t="n">
+        <v>0</v>
+      </c>
+      <c r="M879" t="n">
+        <v>0</v>
+      </c>
+      <c r="N879" t="n">
+        <v>30</v>
+      </c>
+      <c r="O879" t="n">
+        <v>0</v>
+      </c>
+      <c r="P879" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q879" t="n">
+        <v>0</v>
+      </c>
+      <c r="R879" t="inlineStr"/>
+    </row>
+    <row r="880">
+      <c r="A880" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B880" t="n">
+        <v>1062.073305642771</v>
+      </c>
+      <c r="C880" t="n">
+        <v>1151.09294674948</v>
+      </c>
+      <c r="D880" t="n">
+        <v>1054.766854230782</v>
+      </c>
+      <c r="E880" t="n">
+        <v>1102.432861328125</v>
+      </c>
+      <c r="F880" t="inlineStr"/>
+      <c r="G880" t="n">
+        <v>1874139</v>
+      </c>
+      <c r="H880" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I880" t="n">
+        <v>7</v>
+      </c>
+      <c r="J880" t="n">
+        <v>29</v>
+      </c>
+      <c r="K880" t="n">
+        <v>0</v>
+      </c>
+      <c r="L880" t="n">
+        <v>0</v>
+      </c>
+      <c r="M880" t="n">
+        <v>0</v>
+      </c>
+      <c r="N880" t="n">
+        <v>31</v>
+      </c>
+      <c r="O880" t="n">
+        <v>0</v>
+      </c>
+      <c r="P880" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q880" t="n">
+        <v>0</v>
+      </c>
+      <c r="R880" t="inlineStr"/>
+    </row>
+    <row r="881">
+      <c r="A881" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B881" t="n">
+        <v>1034.934916612154</v>
+      </c>
+      <c r="C881" t="n">
+        <v>1127.732103687685</v>
+      </c>
+      <c r="D881" t="n">
+        <v>1004.019105072002</v>
+      </c>
+      <c r="E881" t="n">
+        <v>1091.100341796875</v>
+      </c>
+      <c r="F881" t="inlineStr"/>
+      <c r="G881" t="n">
+        <v>1323582</v>
+      </c>
+      <c r="H881" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I881" t="n">
+        <v>8</v>
+      </c>
+      <c r="J881" t="n">
+        <v>5</v>
+      </c>
+      <c r="K881" t="n">
+        <v>0</v>
+      </c>
+      <c r="L881" t="n">
+        <v>0</v>
+      </c>
+      <c r="M881" t="n">
+        <v>0</v>
+      </c>
+      <c r="N881" t="n">
+        <v>32</v>
+      </c>
+      <c r="O881" t="n">
+        <v>0</v>
+      </c>
+      <c r="P881" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q881" t="n">
+        <v>0</v>
+      </c>
+      <c r="R881" t="inlineStr"/>
+    </row>
+    <row r="882">
+      <c r="A882" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B882" t="n">
+        <v>1088.515764559402</v>
+      </c>
+      <c r="C882" t="n">
+        <v>1173.012422082278</v>
+      </c>
+      <c r="D882" t="n">
+        <v>1018.930281893504</v>
+      </c>
+      <c r="E882" t="n">
+        <v>1030.362182617188</v>
+      </c>
+      <c r="F882" t="inlineStr"/>
+      <c r="G882" t="n">
+        <v>1279458</v>
+      </c>
+      <c r="H882" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I882" t="n">
+        <v>8</v>
+      </c>
+      <c r="J882" t="n">
+        <v>12</v>
+      </c>
+      <c r="K882" t="n">
+        <v>0</v>
+      </c>
+      <c r="L882" t="n">
+        <v>0</v>
+      </c>
+      <c r="M882" t="n">
+        <v>0</v>
+      </c>
+      <c r="N882" t="n">
+        <v>33</v>
+      </c>
+      <c r="O882" t="n">
+        <v>0</v>
+      </c>
+      <c r="P882" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q882" t="n">
+        <v>0</v>
+      </c>
+      <c r="R882" t="inlineStr"/>
+    </row>
+    <row r="883">
+      <c r="A883" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B883" t="n">
+        <v>1037.022378177477</v>
+      </c>
+      <c r="C883" t="n">
+        <v>1141.201826946405</v>
+      </c>
+      <c r="D883" t="n">
+        <v>1030.560869575429</v>
+      </c>
+      <c r="E883" t="n">
+        <v>1092.8896484375</v>
+      </c>
+      <c r="F883" t="inlineStr"/>
+      <c r="G883" t="n">
+        <v>1158497</v>
+      </c>
+      <c r="H883" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I883" t="n">
+        <v>8</v>
+      </c>
+      <c r="J883" t="n">
+        <v>19</v>
+      </c>
+      <c r="K883" t="n">
+        <v>0</v>
+      </c>
+      <c r="L883" t="n">
+        <v>0</v>
+      </c>
+      <c r="M883" t="n">
+        <v>0</v>
+      </c>
+      <c r="N883" t="n">
+        <v>34</v>
+      </c>
+      <c r="O883" t="n">
+        <v>0</v>
+      </c>
+      <c r="P883" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q883" t="n">
+        <v>0</v>
+      </c>
+      <c r="R883" t="inlineStr"/>
+    </row>
+    <row r="884">
+      <c r="A884" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B884" t="n">
+        <v>1103.327555215524</v>
+      </c>
+      <c r="C884" t="n">
+        <v>1103.426938778356</v>
+      </c>
+      <c r="D884" t="n">
+        <v>1024.4970956449</v>
+      </c>
+      <c r="E884" t="n">
+        <v>1044.378662109375</v>
+      </c>
+      <c r="F884" t="inlineStr"/>
+      <c r="G884" t="n">
+        <v>722424</v>
+      </c>
+      <c r="H884" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I884" t="n">
+        <v>8</v>
+      </c>
+      <c r="J884" t="n">
+        <v>26</v>
+      </c>
+      <c r="K884" t="n">
+        <v>0</v>
+      </c>
+      <c r="L884" t="n">
+        <v>0</v>
+      </c>
+      <c r="M884" t="n">
+        <v>0</v>
+      </c>
+      <c r="N884" t="n">
+        <v>35</v>
+      </c>
+      <c r="O884" t="n">
+        <v>0</v>
+      </c>
+      <c r="P884" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q884" t="n">
+        <v>0</v>
+      </c>
+      <c r="R884" t="inlineStr"/>
+    </row>
+    <row r="885">
+      <c r="A885" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B885" t="n">
+        <v>1051.73480774515</v>
+      </c>
+      <c r="C885" t="n">
+        <v>1130.26699093217</v>
+      </c>
+      <c r="D885" t="n">
+        <v>1023.950368688214</v>
+      </c>
+      <c r="E885" t="n">
+        <v>1108.447021484375</v>
+      </c>
+      <c r="F885" t="inlineStr"/>
+      <c r="G885" t="n">
+        <v>919785</v>
+      </c>
+      <c r="H885" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I885" t="n">
+        <v>9</v>
+      </c>
+      <c r="J885" t="n">
+        <v>2</v>
+      </c>
+      <c r="K885" t="n">
+        <v>0</v>
+      </c>
+      <c r="L885" t="n">
+        <v>0</v>
+      </c>
+      <c r="M885" t="n">
+        <v>0</v>
+      </c>
+      <c r="N885" t="n">
+        <v>36</v>
+      </c>
+      <c r="O885" t="n">
+        <v>0</v>
+      </c>
+      <c r="P885" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q885" t="n">
+        <v>0</v>
+      </c>
+      <c r="R885" t="inlineStr"/>
+    </row>
+    <row r="886">
+      <c r="A886" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B886" t="n">
+        <v>1110.385485439989</v>
+      </c>
+      <c r="C886" t="n">
+        <v>1193.888064470391</v>
+      </c>
+      <c r="D886" t="n">
+        <v>1088.913417958804</v>
+      </c>
+      <c r="E886" t="n">
+        <v>1107.453002929688</v>
+      </c>
+      <c r="F886" t="inlineStr"/>
+      <c r="G886" t="n">
+        <v>1035161</v>
+      </c>
+      <c r="H886" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I886" t="n">
+        <v>9</v>
+      </c>
+      <c r="J886" t="n">
+        <v>9</v>
+      </c>
+      <c r="K886" t="n">
+        <v>0</v>
+      </c>
+      <c r="L886" t="n">
+        <v>0</v>
+      </c>
+      <c r="M886" t="n">
+        <v>0</v>
+      </c>
+      <c r="N886" t="n">
+        <v>37</v>
+      </c>
+      <c r="O886" t="n">
+        <v>1</v>
+      </c>
+      <c r="P886" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q886" t="n">
+        <v>0</v>
+      </c>
+      <c r="R886" t="inlineStr"/>
+    </row>
+    <row r="887">
+      <c r="A887" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B887" t="n">
+        <v>1107.452925822308</v>
+      </c>
+      <c r="C887" t="n">
+        <v>1116.747533214414</v>
+      </c>
+      <c r="D887" t="n">
+        <v>1020.023670699701</v>
+      </c>
+      <c r="E887" t="n">
+        <v>1061.476806640625</v>
+      </c>
+      <c r="F887" t="inlineStr"/>
+      <c r="G887" t="n">
+        <v>519118</v>
+      </c>
+      <c r="H887" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I887" t="n">
+        <v>9</v>
+      </c>
+      <c r="J887" t="n">
+        <v>16</v>
+      </c>
+      <c r="K887" t="n">
+        <v>0</v>
+      </c>
+      <c r="L887" t="n">
+        <v>0</v>
+      </c>
+      <c r="M887" t="n">
+        <v>0</v>
+      </c>
+      <c r="N887" t="n">
+        <v>38</v>
+      </c>
+      <c r="O887" t="n">
+        <v>0</v>
+      </c>
+      <c r="P887" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q887" t="n">
+        <v>0</v>
+      </c>
+      <c r="R887" t="inlineStr"/>
+    </row>
+    <row r="888">
+      <c r="A888" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B888" t="n">
+        <v>1064.608061074972</v>
+      </c>
+      <c r="C888" t="n">
+        <v>1118.338039418921</v>
+      </c>
+      <c r="D888" t="n">
+        <v>1015.947978921011</v>
+      </c>
+      <c r="E888" t="n">
+        <v>1022.061584472656</v>
+      </c>
+      <c r="F888" t="inlineStr"/>
+      <c r="G888" t="n">
+        <v>748320</v>
+      </c>
+      <c r="H888" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I888" t="n">
+        <v>9</v>
+      </c>
+      <c r="J888" t="n">
+        <v>23</v>
+      </c>
+      <c r="K888" t="n">
+        <v>0</v>
+      </c>
+      <c r="L888" t="n">
+        <v>0</v>
+      </c>
+      <c r="M888" t="n">
+        <v>0</v>
+      </c>
+      <c r="N888" t="n">
+        <v>39</v>
+      </c>
+      <c r="O888" t="n">
+        <v>0</v>
+      </c>
+      <c r="P888" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q888" t="n">
+        <v>0</v>
+      </c>
+      <c r="R888" t="inlineStr"/>
+    </row>
+    <row r="889">
+      <c r="A889" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B889" t="n">
+        <v>1026.98223810997</v>
+      </c>
+      <c r="C889" t="n">
+        <v>1027.181126572755</v>
+      </c>
+      <c r="D889" t="n">
+        <v>916.1425108277032</v>
+      </c>
+      <c r="E889" t="n">
+        <v>920.5164794921875</v>
+      </c>
+      <c r="F889" t="inlineStr"/>
+      <c r="G889" t="n">
+        <v>834473</v>
+      </c>
+      <c r="H889" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I889" t="n">
+        <v>9</v>
+      </c>
+      <c r="J889" t="n">
+        <v>30</v>
+      </c>
+      <c r="K889" t="n">
+        <v>0</v>
+      </c>
+      <c r="L889" t="n">
+        <v>0</v>
+      </c>
+      <c r="M889" t="n">
+        <v>0</v>
+      </c>
+      <c r="N889" t="n">
+        <v>40</v>
+      </c>
+      <c r="O889" t="n">
+        <v>0</v>
+      </c>
+      <c r="P889" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q889" t="n">
+        <v>0</v>
+      </c>
+      <c r="R889" t="inlineStr"/>
+    </row>
+    <row r="890">
+      <c r="A890" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B890" t="n">
+        <v>894.6704597418474</v>
+      </c>
+      <c r="C890" t="n">
+        <v>938.2110766478725</v>
+      </c>
+      <c r="D890" t="n">
+        <v>847.8990883978655</v>
+      </c>
+      <c r="E890" t="n">
+        <v>930.109375</v>
+      </c>
+      <c r="F890" t="inlineStr"/>
+      <c r="G890" t="n">
+        <v>818013</v>
+      </c>
+      <c r="H890" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I890" t="n">
+        <v>10</v>
+      </c>
+      <c r="J890" t="n">
+        <v>7</v>
+      </c>
+      <c r="K890" t="n">
+        <v>0</v>
+      </c>
+      <c r="L890" t="n">
+        <v>0</v>
+      </c>
+      <c r="M890" t="n">
+        <v>0</v>
+      </c>
+      <c r="N890" t="n">
+        <v>41</v>
+      </c>
+      <c r="O890" t="n">
+        <v>0</v>
+      </c>
+      <c r="P890" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q890" t="n">
+        <v>0</v>
+      </c>
+      <c r="R890" t="inlineStr"/>
+    </row>
+    <row r="891">
+      <c r="A891" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B891" t="n">
+        <v>934.8312426370069</v>
+      </c>
+      <c r="C891" t="n">
+        <v>938.4099001902771</v>
+      </c>
+      <c r="D891" t="n">
+        <v>873.5959839322209</v>
+      </c>
+      <c r="E891" t="n">
+        <v>906.1023559570312</v>
+      </c>
+      <c r="F891" t="inlineStr"/>
+      <c r="G891" t="n">
+        <v>426956</v>
+      </c>
+      <c r="H891" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I891" t="n">
+        <v>10</v>
+      </c>
+      <c r="J891" t="n">
+        <v>14</v>
+      </c>
+      <c r="K891" t="n">
+        <v>0</v>
+      </c>
+      <c r="L891" t="n">
+        <v>0</v>
+      </c>
+      <c r="M891" t="n">
+        <v>0</v>
+      </c>
+      <c r="N891" t="n">
+        <v>42</v>
+      </c>
+      <c r="O891" t="n">
+        <v>0</v>
+      </c>
+      <c r="P891" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q891" t="n">
+        <v>0</v>
+      </c>
+      <c r="R891" t="inlineStr"/>
+    </row>
+    <row r="892">
+      <c r="A892" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B892" t="n">
+        <v>903.6171695217614</v>
+      </c>
+      <c r="C892" t="n">
+        <v>904.8597673896406</v>
+      </c>
+      <c r="D892" t="n">
+        <v>806.1974966800313</v>
+      </c>
+      <c r="E892" t="n">
+        <v>814.9453735351562</v>
+      </c>
+      <c r="F892" t="inlineStr"/>
+      <c r="G892" t="n">
+        <v>424074</v>
+      </c>
+      <c r="H892" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I892" t="n">
+        <v>10</v>
+      </c>
+      <c r="J892" t="n">
+        <v>21</v>
+      </c>
+      <c r="K892" t="n">
+        <v>0</v>
+      </c>
+      <c r="L892" t="n">
+        <v>0</v>
+      </c>
+      <c r="M892" t="n">
+        <v>0</v>
+      </c>
+      <c r="N892" t="n">
+        <v>43</v>
+      </c>
+      <c r="O892" t="n">
+        <v>0</v>
+      </c>
+      <c r="P892" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q892" t="n">
+        <v>2</v>
+      </c>
+      <c r="R892" t="inlineStr"/>
+    </row>
+    <row r="893">
+      <c r="A893" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B893" t="n">
+        <v>820.6116422810073</v>
+      </c>
+      <c r="C893" t="n">
+        <v>926.4809819574789</v>
+      </c>
+      <c r="D893" t="n">
+        <v>799.338342245541</v>
+      </c>
+      <c r="E893" t="n">
+        <v>914.9993896484375</v>
+      </c>
+      <c r="F893" t="inlineStr"/>
+      <c r="G893" t="n">
+        <v>500815</v>
+      </c>
+      <c r="H893" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I893" t="n">
+        <v>10</v>
+      </c>
+      <c r="J893" t="n">
+        <v>28</v>
+      </c>
+      <c r="K893" t="n">
+        <v>0</v>
+      </c>
+      <c r="L893" t="n">
+        <v>0</v>
+      </c>
+      <c r="M893" t="n">
+        <v>0</v>
+      </c>
+      <c r="N893" t="n">
+        <v>44</v>
+      </c>
+      <c r="O893" t="n">
+        <v>2</v>
+      </c>
+      <c r="P893" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q893" t="n">
+        <v>0</v>
+      </c>
+      <c r="R893" t="inlineStr"/>
+    </row>
+    <row r="894">
+      <c r="A894" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B894" t="n">
+        <v>914.9993881927315</v>
+      </c>
+      <c r="C894" t="n">
+        <v>958.6891418427663</v>
+      </c>
+      <c r="D894" t="n">
+        <v>907.59349268395</v>
+      </c>
+      <c r="E894" t="n">
+        <v>921.0135498046875</v>
+      </c>
+      <c r="F894" t="inlineStr"/>
+      <c r="G894" t="n">
+        <v>365025</v>
+      </c>
+      <c r="H894" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I894" t="n">
+        <v>11</v>
+      </c>
+      <c r="J894" t="n">
+        <v>4</v>
+      </c>
+      <c r="K894" t="n">
+        <v>0</v>
+      </c>
+      <c r="L894" t="n">
+        <v>0</v>
+      </c>
+      <c r="M894" t="n">
+        <v>0</v>
+      </c>
+      <c r="N894" t="n">
+        <v>45</v>
+      </c>
+      <c r="O894" t="n">
+        <v>0</v>
+      </c>
+      <c r="P894" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q894" t="n">
+        <v>0</v>
+      </c>
+      <c r="R894" t="inlineStr"/>
+    </row>
+    <row r="895">
+      <c r="A895" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B895" t="n">
+        <v>920.5164807348666</v>
+      </c>
+      <c r="C895" t="n">
+        <v>927.4750286453893</v>
+      </c>
+      <c r="D895" t="n">
+        <v>805.7004402112412</v>
+      </c>
+      <c r="E895" t="n">
+        <v>854.7581787109375</v>
+      </c>
+      <c r="F895" t="inlineStr"/>
+      <c r="G895" t="n">
+        <v>491254</v>
+      </c>
+      <c r="H895" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I895" t="n">
+        <v>11</v>
+      </c>
+      <c r="J895" t="n">
+        <v>11</v>
+      </c>
+      <c r="K895" t="n">
+        <v>0</v>
+      </c>
+      <c r="L895" t="n">
+        <v>0</v>
+      </c>
+      <c r="M895" t="n">
+        <v>0</v>
+      </c>
+      <c r="N895" t="n">
+        <v>46</v>
+      </c>
+      <c r="O895" t="n">
+        <v>0</v>
+      </c>
+      <c r="P895" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q895" t="n">
+        <v>0</v>
+      </c>
+      <c r="R895" t="inlineStr"/>
+    </row>
+    <row r="896">
+      <c r="A896" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B896" t="n">
+        <v>841.9346274956798</v>
+      </c>
+      <c r="C896" t="n">
+        <v>860.5735956024364</v>
+      </c>
+      <c r="D896" t="n">
+        <v>807.7383097396605</v>
+      </c>
+      <c r="E896" t="n">
+        <v>817.9276123046875</v>
+      </c>
+      <c r="F896" t="inlineStr"/>
+      <c r="G896" t="n">
+        <v>270374</v>
+      </c>
+      <c r="H896" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I896" t="n">
+        <v>11</v>
+      </c>
+      <c r="J896" t="n">
+        <v>18</v>
+      </c>
+      <c r="K896" t="n">
+        <v>0</v>
+      </c>
+      <c r="L896" t="n">
+        <v>0</v>
+      </c>
+      <c r="M896" t="n">
+        <v>0</v>
+      </c>
+      <c r="N896" t="n">
+        <v>47</v>
+      </c>
+      <c r="O896" t="n">
+        <v>0</v>
+      </c>
+      <c r="P896" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q896" t="n">
+        <v>0</v>
+      </c>
+      <c r="R896" t="inlineStr"/>
+    </row>
+    <row r="897">
+      <c r="A897" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B897" t="n">
+        <v>830.0553770000746</v>
+      </c>
+      <c r="C897" t="n">
+        <v>888.7059964527746</v>
+      </c>
+      <c r="D897" t="n">
+        <v>826.6754865248362</v>
+      </c>
+      <c r="E897" t="n">
+        <v>860.3250732421875</v>
+      </c>
+      <c r="F897" t="inlineStr"/>
+      <c r="G897" t="n">
+        <v>468864</v>
+      </c>
+      <c r="H897" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I897" t="n">
+        <v>11</v>
+      </c>
+      <c r="J897" t="n">
+        <v>25</v>
+      </c>
+      <c r="K897" t="n">
+        <v>0</v>
+      </c>
+      <c r="L897" t="n">
+        <v>0</v>
+      </c>
+      <c r="M897" t="n">
+        <v>0</v>
+      </c>
+      <c r="N897" t="n">
+        <v>48</v>
+      </c>
+      <c r="O897" t="n">
+        <v>0</v>
+      </c>
+      <c r="P897" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q897" t="n">
+        <v>0</v>
+      </c>
+      <c r="R897" t="inlineStr"/>
+    </row>
+    <row r="898">
+      <c r="A898" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B898" t="n">
+        <v>865.4500122070312</v>
+      </c>
+      <c r="C898" t="n">
+        <v>975.0499877929688</v>
+      </c>
+      <c r="D898" t="n">
+        <v>861.25</v>
+      </c>
+      <c r="E898" t="n">
+        <v>939.0999755859375</v>
+      </c>
+      <c r="F898" t="inlineStr"/>
+      <c r="G898" t="n">
+        <v>498731</v>
+      </c>
+      <c r="H898" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I898" t="n">
+        <v>12</v>
+      </c>
+      <c r="J898" t="n">
+        <v>2</v>
+      </c>
+      <c r="K898" t="n">
+        <v>0</v>
+      </c>
+      <c r="L898" t="n">
+        <v>0</v>
+      </c>
+      <c r="M898" t="n">
+        <v>0</v>
+      </c>
+      <c r="N898" t="n">
+        <v>49</v>
+      </c>
+      <c r="O898" t="n">
+        <v>1</v>
+      </c>
+      <c r="P898" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q898" t="n">
+        <v>0</v>
+      </c>
+      <c r="R898" t="inlineStr"/>
+    </row>
+    <row r="899">
+      <c r="A899" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B899" t="n">
+        <v>946.5</v>
+      </c>
+      <c r="C899" t="n">
+        <v>964.7999877929688</v>
+      </c>
+      <c r="D899" t="n">
+        <v>897.6500244140625</v>
+      </c>
+      <c r="E899" t="n">
+        <v>922.5999755859375</v>
+      </c>
+      <c r="F899" t="inlineStr"/>
+      <c r="G899" t="n">
+        <v>302541</v>
+      </c>
+      <c r="H899" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I899" t="n">
+        <v>12</v>
+      </c>
+      <c r="J899" t="n">
+        <v>9</v>
+      </c>
+      <c r="K899" t="n">
+        <v>0</v>
+      </c>
+      <c r="L899" t="n">
+        <v>0</v>
+      </c>
+      <c r="M899" t="n">
+        <v>0</v>
+      </c>
+      <c r="N899" t="n">
+        <v>50</v>
+      </c>
+      <c r="O899" t="n">
+        <v>0</v>
+      </c>
+      <c r="P899" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q899" t="n">
+        <v>1</v>
+      </c>
+      <c r="R899" t="inlineStr"/>
+    </row>
+    <row r="900">
+      <c r="A900" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B900" t="n">
+        <v>922.5999755859375</v>
+      </c>
+      <c r="C900" t="n">
+        <v>962.2999877929688</v>
+      </c>
+      <c r="D900" t="n">
+        <v>867</v>
+      </c>
+      <c r="E900" t="n">
+        <v>876.8499755859375</v>
+      </c>
+      <c r="F900" t="inlineStr"/>
+      <c r="G900" t="n">
+        <v>386371</v>
+      </c>
+      <c r="H900" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I900" t="n">
+        <v>12</v>
+      </c>
+      <c r="J900" t="n">
+        <v>16</v>
+      </c>
+      <c r="K900" t="n">
+        <v>0</v>
+      </c>
+      <c r="L900" t="n">
+        <v>0</v>
+      </c>
+      <c r="M900" t="n">
+        <v>0</v>
+      </c>
+      <c r="N900" t="n">
+        <v>51</v>
+      </c>
+      <c r="O900" t="n">
+        <v>0</v>
+      </c>
+      <c r="P900" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q900" t="n">
+        <v>0</v>
+      </c>
+      <c r="R900" t="inlineStr"/>
+    </row>
+    <row r="901">
+      <c r="A901" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B901" t="n">
+        <v>879.5</v>
+      </c>
+      <c r="C901" t="n">
+        <v>883</v>
+      </c>
+      <c r="D901" t="n">
+        <v>850</v>
+      </c>
+      <c r="E901" t="n">
+        <v>870.7000122070312</v>
+      </c>
+      <c r="F901" t="inlineStr"/>
+      <c r="G901" t="n">
+        <v>236684</v>
+      </c>
+      <c r="H901" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I901" t="n">
+        <v>12</v>
+      </c>
+      <c r="J901" t="n">
+        <v>23</v>
+      </c>
+      <c r="K901" t="n">
+        <v>0</v>
+      </c>
+      <c r="L901" t="n">
+        <v>0</v>
+      </c>
+      <c r="M901" t="n">
+        <v>0</v>
+      </c>
+      <c r="N901" t="n">
+        <v>52</v>
+      </c>
+      <c r="O901" t="n">
+        <v>0</v>
+      </c>
+      <c r="P901" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q901" t="n">
+        <v>0</v>
+      </c>
+      <c r="R901" t="inlineStr"/>
+    </row>
+    <row r="902">
+      <c r="A902" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B902" t="n">
+        <v>874.9500122070312</v>
+      </c>
+      <c r="C902" t="n">
+        <v>953.0999755859375</v>
+      </c>
+      <c r="D902" t="n">
+        <v>845</v>
+      </c>
+      <c r="E902" t="n">
+        <v>936.5</v>
+      </c>
+      <c r="F902" t="inlineStr"/>
+      <c r="G902" t="n">
+        <v>318733</v>
+      </c>
+      <c r="H902" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I902" t="n">
+        <v>12</v>
+      </c>
+      <c r="J902" t="n">
+        <v>30</v>
+      </c>
+      <c r="K902" t="n">
+        <v>0</v>
+      </c>
+      <c r="L902" t="n">
+        <v>0</v>
+      </c>
+      <c r="M902" t="n">
+        <v>0</v>
+      </c>
+      <c r="N902" t="n">
+        <v>1</v>
+      </c>
+      <c r="O902" t="n">
+        <v>0</v>
+      </c>
+      <c r="P902" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q902" t="n">
+        <v>0</v>
+      </c>
+      <c r="R902" t="inlineStr"/>
+    </row>
+    <row r="903">
+      <c r="A903" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B903" t="n">
+        <v>910.0999755859375</v>
+      </c>
+      <c r="C903" t="n">
+        <v>944.7000122070312</v>
+      </c>
+      <c r="D903" t="n">
+        <v>865</v>
+      </c>
+      <c r="E903" t="n">
+        <v>908.5</v>
+      </c>
+      <c r="F903" t="inlineStr"/>
+      <c r="G903" t="n">
+        <v>477252</v>
+      </c>
+      <c r="H903" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I903" t="n">
+        <v>1</v>
+      </c>
+      <c r="J903" t="n">
+        <v>6</v>
+      </c>
+      <c r="K903" t="n">
+        <v>0</v>
+      </c>
+      <c r="L903" t="n">
+        <v>0</v>
+      </c>
+      <c r="M903" t="n">
+        <v>0</v>
+      </c>
+      <c r="N903" t="n">
+        <v>2</v>
+      </c>
+      <c r="O903" t="n">
+        <v>0</v>
+      </c>
+      <c r="P903" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q903" t="n">
+        <v>0</v>
+      </c>
+      <c r="R903" t="inlineStr"/>
+    </row>
+    <row r="904">
+      <c r="A904" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B904" t="n">
+        <v>903.7999877929688</v>
+      </c>
+      <c r="C904" t="n">
+        <v>931.3499755859375</v>
+      </c>
+      <c r="D904" t="n">
+        <v>871</v>
+      </c>
+      <c r="E904" t="n">
+        <v>901.5499877929688</v>
+      </c>
+      <c r="F904" t="inlineStr"/>
+      <c r="G904" t="n">
+        <v>395477</v>
+      </c>
+      <c r="H904" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I904" t="n">
+        <v>1</v>
+      </c>
+      <c r="J904" t="n">
+        <v>13</v>
+      </c>
+      <c r="K904" t="n">
+        <v>0</v>
+      </c>
+      <c r="L904" t="n">
+        <v>0</v>
+      </c>
+      <c r="M904" t="n">
+        <v>0</v>
+      </c>
+      <c r="N904" t="n">
+        <v>3</v>
+      </c>
+      <c r="O904" t="n">
+        <v>0</v>
+      </c>
+      <c r="P904" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q904" t="n">
+        <v>2</v>
+      </c>
+      <c r="R904" t="inlineStr"/>
+    </row>
+    <row r="905">
+      <c r="A905" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B905" t="n">
+        <v>908</v>
+      </c>
+      <c r="C905" t="n">
+        <v>945</v>
+      </c>
+      <c r="D905" t="n">
+        <v>882</v>
+      </c>
+      <c r="E905" t="n">
+        <v>900.5499877929688</v>
+      </c>
+      <c r="F905" t="inlineStr"/>
+      <c r="G905" t="n">
+        <v>554840</v>
+      </c>
+      <c r="H905" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I905" t="n">
+        <v>1</v>
+      </c>
+      <c r="J905" t="n">
+        <v>20</v>
+      </c>
+      <c r="K905" t="n">
+        <v>0</v>
+      </c>
+      <c r="L905" t="n">
+        <v>0</v>
+      </c>
+      <c r="M905" t="n">
+        <v>0</v>
+      </c>
+      <c r="N905" t="n">
+        <v>4</v>
+      </c>
+      <c r="O905" t="n">
+        <v>0</v>
+      </c>
+      <c r="P905" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q905" t="n">
+        <v>0</v>
+      </c>
+      <c r="R905" t="inlineStr"/>
+    </row>
+    <row r="906">
+      <c r="A906" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B906" t="n">
+        <v>900.5499877929688</v>
+      </c>
+      <c r="C906" t="n">
+        <v>923</v>
+      </c>
+      <c r="D906" t="n">
+        <v>867.4500122070312</v>
+      </c>
+      <c r="E906" t="n">
+        <v>903.4500122070312</v>
+      </c>
+      <c r="F906" t="inlineStr"/>
+      <c r="G906" t="n">
+        <v>660471</v>
+      </c>
+      <c r="H906" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I906" t="n">
+        <v>1</v>
+      </c>
+      <c r="J906" t="n">
+        <v>27</v>
+      </c>
+      <c r="K906" t="n">
+        <v>0</v>
+      </c>
+      <c r="L906" t="n">
+        <v>0</v>
+      </c>
+      <c r="M906" t="n">
+        <v>0</v>
+      </c>
+      <c r="N906" t="n">
+        <v>5</v>
+      </c>
+      <c r="O906" t="n">
+        <v>0</v>
+      </c>
+      <c r="P906" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q906" t="n">
+        <v>0</v>
+      </c>
+      <c r="R906" t="inlineStr"/>
+    </row>
+    <row r="907">
+      <c r="A907" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B907" t="n">
+        <v>985</v>
+      </c>
+      <c r="C907" t="n">
+        <v>994.8499755859375</v>
+      </c>
+      <c r="D907" t="n">
+        <v>921.5</v>
+      </c>
+      <c r="E907" t="n">
+        <v>960.9000244140625</v>
+      </c>
+      <c r="F907" t="inlineStr"/>
+      <c r="G907" t="n">
+        <v>786633</v>
+      </c>
+      <c r="H907" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I907" t="n">
+        <v>2</v>
+      </c>
+      <c r="J907" t="n">
+        <v>3</v>
+      </c>
+      <c r="K907" t="n">
+        <v>0</v>
+      </c>
+      <c r="L907" t="n">
+        <v>0</v>
+      </c>
+      <c r="M907" t="n">
+        <v>0</v>
+      </c>
+      <c r="N907" t="n">
+        <v>6</v>
+      </c>
+      <c r="O907" t="n">
+        <v>0</v>
+      </c>
+      <c r="P907" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q907" t="n">
+        <v>0</v>
+      </c>
+      <c r="R907" t="inlineStr"/>
+    </row>
+    <row r="908">
+      <c r="A908" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B908" t="n">
+        <v>966</v>
+      </c>
+      <c r="C908" t="n">
+        <v>1013</v>
+      </c>
+      <c r="D908" t="n">
+        <v>900.6500244140625</v>
+      </c>
+      <c r="E908" t="n">
+        <v>935.75</v>
+      </c>
+      <c r="F908" t="inlineStr"/>
+      <c r="G908" t="n">
+        <v>797444</v>
+      </c>
+      <c r="H908" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I908" t="n">
+        <v>2</v>
+      </c>
+      <c r="J908" t="n">
+        <v>10</v>
+      </c>
+      <c r="K908" t="n">
+        <v>0</v>
+      </c>
+      <c r="L908" t="n">
+        <v>0</v>
+      </c>
+      <c r="M908" t="n">
+        <v>0</v>
+      </c>
+      <c r="N908" t="n">
+        <v>7</v>
+      </c>
+      <c r="O908" t="n">
+        <v>0</v>
+      </c>
+      <c r="P908" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q908" t="n">
+        <v>0</v>
+      </c>
+      <c r="R908" t="inlineStr"/>
+    </row>
+    <row r="909">
+      <c r="A909" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B909" t="n">
+        <v>936</v>
+      </c>
+      <c r="C909" t="n">
+        <v>1020</v>
+      </c>
+      <c r="D909" t="n">
+        <v>924.9500122070312</v>
+      </c>
+      <c r="E909" t="n">
+        <v>980.4500122070312</v>
+      </c>
+      <c r="F909" t="inlineStr"/>
+      <c r="G909" t="n">
+        <v>575675</v>
+      </c>
+      <c r="H909" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I909" t="n">
+        <v>2</v>
+      </c>
+      <c r="J909" t="n">
+        <v>17</v>
+      </c>
+      <c r="K909" t="n">
+        <v>0</v>
+      </c>
+      <c r="L909" t="n">
+        <v>0</v>
+      </c>
+      <c r="M909" t="n">
+        <v>0</v>
+      </c>
+      <c r="N909" t="n">
+        <v>8</v>
+      </c>
+      <c r="O909" t="n">
+        <v>0</v>
+      </c>
+      <c r="P909" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q909" t="n">
+        <v>0</v>
+      </c>
+      <c r="R909" t="inlineStr"/>
+    </row>
+    <row r="910">
+      <c r="A910" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B910" t="n">
+        <v>985.3499755859375</v>
+      </c>
+      <c r="C910" t="n">
+        <v>1052.900024414062</v>
+      </c>
+      <c r="D910" t="n">
+        <v>953</v>
+      </c>
+      <c r="E910" t="n">
+        <v>1000.950012207031</v>
+      </c>
+      <c r="F910" t="inlineStr"/>
+      <c r="G910" t="n">
+        <v>1237359</v>
+      </c>
+      <c r="H910" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I910" t="n">
+        <v>2</v>
+      </c>
+      <c r="J910" t="n">
+        <v>24</v>
+      </c>
+      <c r="K910" t="n">
+        <v>0</v>
+      </c>
+      <c r="L910" t="n">
+        <v>0</v>
+      </c>
+      <c r="M910" t="n">
+        <v>0</v>
+      </c>
+      <c r="N910" t="n">
+        <v>9</v>
+      </c>
+      <c r="O910" t="n">
+        <v>0</v>
+      </c>
+      <c r="P910" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q910" t="n">
+        <v>0</v>
+      </c>
+      <c r="R910" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/KSCL.NS.xlsx
+++ b/stock_historical_data/1wk/KSCL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R910"/>
+  <dimension ref="A1:R919"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49523,7 +49523,9 @@
       <c r="Q876" t="n">
         <v>0</v>
       </c>
-      <c r="R876" t="inlineStr"/>
+      <c r="R876" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="877">
       <c r="A877" s="2" t="n">
@@ -49575,7 +49577,9 @@
       <c r="Q877" t="n">
         <v>0</v>
       </c>
-      <c r="R877" t="inlineStr"/>
+      <c r="R877" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="878">
       <c r="A878" s="2" t="n">
@@ -49627,7 +49631,9 @@
       <c r="Q878" t="n">
         <v>0</v>
       </c>
-      <c r="R878" t="inlineStr"/>
+      <c r="R878" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="879">
       <c r="A879" s="2" t="n">
@@ -49679,7 +49685,9 @@
       <c r="Q879" t="n">
         <v>0</v>
       </c>
-      <c r="R879" t="inlineStr"/>
+      <c r="R879" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="880">
       <c r="A880" s="2" t="n">
@@ -49731,7 +49739,9 @@
       <c r="Q880" t="n">
         <v>0</v>
       </c>
-      <c r="R880" t="inlineStr"/>
+      <c r="R880" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="881">
       <c r="A881" s="2" t="n">
@@ -49783,7 +49793,9 @@
       <c r="Q881" t="n">
         <v>0</v>
       </c>
-      <c r="R881" t="inlineStr"/>
+      <c r="R881" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="882">
       <c r="A882" s="2" t="n">
@@ -49835,7 +49847,9 @@
       <c r="Q882" t="n">
         <v>0</v>
       </c>
-      <c r="R882" t="inlineStr"/>
+      <c r="R882" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="883">
       <c r="A883" s="2" t="n">
@@ -49887,7 +49901,9 @@
       <c r="Q883" t="n">
         <v>0</v>
       </c>
-      <c r="R883" t="inlineStr"/>
+      <c r="R883" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="884">
       <c r="A884" s="2" t="n">
@@ -49939,7 +49955,9 @@
       <c r="Q884" t="n">
         <v>0</v>
       </c>
-      <c r="R884" t="inlineStr"/>
+      <c r="R884" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="885">
       <c r="A885" s="2" t="n">
@@ -49991,7 +50009,9 @@
       <c r="Q885" t="n">
         <v>0</v>
       </c>
-      <c r="R885" t="inlineStr"/>
+      <c r="R885" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="886">
       <c r="A886" s="2" t="n">
@@ -50043,7 +50063,9 @@
       <c r="Q886" t="n">
         <v>0</v>
       </c>
-      <c r="R886" t="inlineStr"/>
+      <c r="R886" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="887">
       <c r="A887" s="2" t="n">
@@ -50095,7 +50117,9 @@
       <c r="Q887" t="n">
         <v>0</v>
       </c>
-      <c r="R887" t="inlineStr"/>
+      <c r="R887" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="888">
       <c r="A888" s="2" t="n">
@@ -50147,7 +50171,9 @@
       <c r="Q888" t="n">
         <v>0</v>
       </c>
-      <c r="R888" t="inlineStr"/>
+      <c r="R888" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="889">
       <c r="A889" s="2" t="n">
@@ -50199,7 +50225,9 @@
       <c r="Q889" t="n">
         <v>0</v>
       </c>
-      <c r="R889" t="inlineStr"/>
+      <c r="R889" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="890">
       <c r="A890" s="2" t="n">
@@ -50251,7 +50279,9 @@
       <c r="Q890" t="n">
         <v>0</v>
       </c>
-      <c r="R890" t="inlineStr"/>
+      <c r="R890" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="891">
       <c r="A891" s="2" t="n">
@@ -50303,7 +50333,9 @@
       <c r="Q891" t="n">
         <v>0</v>
       </c>
-      <c r="R891" t="inlineStr"/>
+      <c r="R891" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="892">
       <c r="A892" s="2" t="n">
@@ -50355,7 +50387,9 @@
       <c r="Q892" t="n">
         <v>2</v>
       </c>
-      <c r="R892" t="inlineStr"/>
+      <c r="R892" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="893">
       <c r="A893" s="2" t="n">
@@ -50407,7 +50441,9 @@
       <c r="Q893" t="n">
         <v>0</v>
       </c>
-      <c r="R893" t="inlineStr"/>
+      <c r="R893" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="894">
       <c r="A894" s="2" t="n">
@@ -50459,7 +50495,9 @@
       <c r="Q894" t="n">
         <v>0</v>
       </c>
-      <c r="R894" t="inlineStr"/>
+      <c r="R894" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="895">
       <c r="A895" s="2" t="n">
@@ -50511,7 +50549,9 @@
       <c r="Q895" t="n">
         <v>0</v>
       </c>
-      <c r="R895" t="inlineStr"/>
+      <c r="R895" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="896">
       <c r="A896" s="2" t="n">
@@ -50563,7 +50603,9 @@
       <c r="Q896" t="n">
         <v>0</v>
       </c>
-      <c r="R896" t="inlineStr"/>
+      <c r="R896" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="897">
       <c r="A897" s="2" t="n">
@@ -50615,7 +50657,9 @@
       <c r="Q897" t="n">
         <v>0</v>
       </c>
-      <c r="R897" t="inlineStr"/>
+      <c r="R897" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="898">
       <c r="A898" s="2" t="n">
@@ -50667,7 +50711,9 @@
       <c r="Q898" t="n">
         <v>0</v>
       </c>
-      <c r="R898" t="inlineStr"/>
+      <c r="R898" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="899">
       <c r="A899" s="2" t="n">
@@ -50719,7 +50765,9 @@
       <c r="Q899" t="n">
         <v>1</v>
       </c>
-      <c r="R899" t="inlineStr"/>
+      <c r="R899" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="900">
       <c r="A900" s="2" t="n">
@@ -50771,7 +50819,9 @@
       <c r="Q900" t="n">
         <v>0</v>
       </c>
-      <c r="R900" t="inlineStr"/>
+      <c r="R900" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="901">
       <c r="A901" s="2" t="n">
@@ -50823,7 +50873,9 @@
       <c r="Q901" t="n">
         <v>0</v>
       </c>
-      <c r="R901" t="inlineStr"/>
+      <c r="R901" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="902">
       <c r="A902" s="2" t="n">
@@ -50875,7 +50927,9 @@
       <c r="Q902" t="n">
         <v>0</v>
       </c>
-      <c r="R902" t="inlineStr"/>
+      <c r="R902" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="903">
       <c r="A903" s="2" t="n">
@@ -50927,7 +50981,9 @@
       <c r="Q903" t="n">
         <v>0</v>
       </c>
-      <c r="R903" t="inlineStr"/>
+      <c r="R903" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="904">
       <c r="A904" s="2" t="n">
@@ -50979,7 +51035,9 @@
       <c r="Q904" t="n">
         <v>2</v>
       </c>
-      <c r="R904" t="inlineStr"/>
+      <c r="R904" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="905">
       <c r="A905" s="2" t="n">
@@ -51031,7 +51089,9 @@
       <c r="Q905" t="n">
         <v>0</v>
       </c>
-      <c r="R905" t="inlineStr"/>
+      <c r="R905" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="906">
       <c r="A906" s="2" t="n">
@@ -51083,7 +51143,9 @@
       <c r="Q906" t="n">
         <v>0</v>
       </c>
-      <c r="R906" t="inlineStr"/>
+      <c r="R906" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="907">
       <c r="A907" s="2" t="n">
@@ -51135,7 +51197,9 @@
       <c r="Q907" t="n">
         <v>0</v>
       </c>
-      <c r="R907" t="inlineStr"/>
+      <c r="R907" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="908">
       <c r="A908" s="2" t="n">
@@ -51187,7 +51251,9 @@
       <c r="Q908" t="n">
         <v>0</v>
       </c>
-      <c r="R908" t="inlineStr"/>
+      <c r="R908" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="909">
       <c r="A909" s="2" t="n">
@@ -51239,7 +51305,9 @@
       <c r="Q909" t="n">
         <v>0</v>
       </c>
-      <c r="R909" t="inlineStr"/>
+      <c r="R909" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="910">
       <c r="A910" s="2" t="n">
@@ -51291,7 +51359,477 @@
       <c r="Q910" t="n">
         <v>0</v>
       </c>
-      <c r="R910" t="inlineStr"/>
+      <c r="R910" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B911" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C911" t="n">
+        <v>1087.949951171875</v>
+      </c>
+      <c r="D911" t="n">
+        <v>969.1500244140625</v>
+      </c>
+      <c r="E911" t="n">
+        <v>1060.400024414062</v>
+      </c>
+      <c r="F911" t="inlineStr"/>
+      <c r="G911" t="n">
+        <v>1021911</v>
+      </c>
+      <c r="H911" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I911" t="n">
+        <v>3</v>
+      </c>
+      <c r="J911" t="n">
+        <v>3</v>
+      </c>
+      <c r="K911" t="n">
+        <v>0</v>
+      </c>
+      <c r="L911" t="n">
+        <v>0</v>
+      </c>
+      <c r="M911" t="n">
+        <v>0</v>
+      </c>
+      <c r="N911" t="n">
+        <v>10</v>
+      </c>
+      <c r="O911" t="n">
+        <v>0</v>
+      </c>
+      <c r="P911" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q911" t="n">
+        <v>0</v>
+      </c>
+      <c r="R911" t="inlineStr"/>
+    </row>
+    <row r="912">
+      <c r="A912" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B912" t="n">
+        <v>1060.949951171875</v>
+      </c>
+      <c r="C912" t="n">
+        <v>1094</v>
+      </c>
+      <c r="D912" t="n">
+        <v>1032.050048828125</v>
+      </c>
+      <c r="E912" t="n">
+        <v>1041.699951171875</v>
+      </c>
+      <c r="F912" t="inlineStr"/>
+      <c r="G912" t="n">
+        <v>695181</v>
+      </c>
+      <c r="H912" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I912" t="n">
+        <v>3</v>
+      </c>
+      <c r="J912" t="n">
+        <v>10</v>
+      </c>
+      <c r="K912" t="n">
+        <v>0</v>
+      </c>
+      <c r="L912" t="n">
+        <v>0</v>
+      </c>
+      <c r="M912" t="n">
+        <v>0</v>
+      </c>
+      <c r="N912" t="n">
+        <v>11</v>
+      </c>
+      <c r="O912" t="n">
+        <v>0</v>
+      </c>
+      <c r="P912" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q912" t="n">
+        <v>0</v>
+      </c>
+      <c r="R912" t="inlineStr"/>
+    </row>
+    <row r="913">
+      <c r="A913" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B913" t="n">
+        <v>1030.050048828125</v>
+      </c>
+      <c r="C913" t="n">
+        <v>1273</v>
+      </c>
+      <c r="D913" t="n">
+        <v>1030.050048828125</v>
+      </c>
+      <c r="E913" t="n">
+        <v>1269</v>
+      </c>
+      <c r="F913" t="inlineStr"/>
+      <c r="G913" t="n">
+        <v>2106007</v>
+      </c>
+      <c r="H913" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I913" t="n">
+        <v>3</v>
+      </c>
+      <c r="J913" t="n">
+        <v>17</v>
+      </c>
+      <c r="K913" t="n">
+        <v>0</v>
+      </c>
+      <c r="L913" t="n">
+        <v>0</v>
+      </c>
+      <c r="M913" t="n">
+        <v>0</v>
+      </c>
+      <c r="N913" t="n">
+        <v>12</v>
+      </c>
+      <c r="O913" t="n">
+        <v>0</v>
+      </c>
+      <c r="P913" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q913" t="n">
+        <v>0</v>
+      </c>
+      <c r="R913" t="inlineStr"/>
+    </row>
+    <row r="914">
+      <c r="A914" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B914" t="n">
+        <v>1285</v>
+      </c>
+      <c r="C914" t="n">
+        <v>1375.800048828125</v>
+      </c>
+      <c r="D914" t="n">
+        <v>1205.800048828125</v>
+      </c>
+      <c r="E914" t="n">
+        <v>1263.150024414062</v>
+      </c>
+      <c r="F914" t="inlineStr"/>
+      <c r="G914" t="n">
+        <v>1535390</v>
+      </c>
+      <c r="H914" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I914" t="n">
+        <v>3</v>
+      </c>
+      <c r="J914" t="n">
+        <v>24</v>
+      </c>
+      <c r="K914" t="n">
+        <v>0</v>
+      </c>
+      <c r="L914" t="n">
+        <v>0</v>
+      </c>
+      <c r="M914" t="n">
+        <v>0</v>
+      </c>
+      <c r="N914" t="n">
+        <v>13</v>
+      </c>
+      <c r="O914" t="n">
+        <v>0</v>
+      </c>
+      <c r="P914" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q914" t="n">
+        <v>0</v>
+      </c>
+      <c r="R914" t="inlineStr"/>
+    </row>
+    <row r="915">
+      <c r="A915" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B915" t="n">
+        <v>1263.150024414062</v>
+      </c>
+      <c r="C915" t="n">
+        <v>1499</v>
+      </c>
+      <c r="D915" t="n">
+        <v>1196.900024414062</v>
+      </c>
+      <c r="E915" t="n">
+        <v>1460.550048828125</v>
+      </c>
+      <c r="F915" t="inlineStr"/>
+      <c r="G915" t="n">
+        <v>4429344</v>
+      </c>
+      <c r="H915" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I915" t="n">
+        <v>3</v>
+      </c>
+      <c r="J915" t="n">
+        <v>31</v>
+      </c>
+      <c r="K915" t="n">
+        <v>0</v>
+      </c>
+      <c r="L915" t="n">
+        <v>0</v>
+      </c>
+      <c r="M915" t="n">
+        <v>0</v>
+      </c>
+      <c r="N915" t="n">
+        <v>14</v>
+      </c>
+      <c r="O915" t="n">
+        <v>0</v>
+      </c>
+      <c r="P915" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q915" t="n">
+        <v>0</v>
+      </c>
+      <c r="R915" t="inlineStr"/>
+    </row>
+    <row r="916">
+      <c r="A916" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B916" t="n">
+        <v>1311</v>
+      </c>
+      <c r="C916" t="n">
+        <v>1447.849975585938</v>
+      </c>
+      <c r="D916" t="n">
+        <v>1260.199951171875</v>
+      </c>
+      <c r="E916" t="n">
+        <v>1432.25</v>
+      </c>
+      <c r="F916" t="inlineStr"/>
+      <c r="G916" t="n">
+        <v>3303889</v>
+      </c>
+      <c r="H916" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I916" t="n">
+        <v>4</v>
+      </c>
+      <c r="J916" t="n">
+        <v>7</v>
+      </c>
+      <c r="K916" t="n">
+        <v>0</v>
+      </c>
+      <c r="L916" t="n">
+        <v>0</v>
+      </c>
+      <c r="M916" t="n">
+        <v>0</v>
+      </c>
+      <c r="N916" t="n">
+        <v>15</v>
+      </c>
+      <c r="O916" t="n">
+        <v>0</v>
+      </c>
+      <c r="P916" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q916" t="n">
+        <v>0</v>
+      </c>
+      <c r="R916" t="inlineStr"/>
+    </row>
+    <row r="917">
+      <c r="A917" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B917" t="n">
+        <v>1432.25</v>
+      </c>
+      <c r="C917" t="n">
+        <v>1602</v>
+      </c>
+      <c r="D917" t="n">
+        <v>1432.25</v>
+      </c>
+      <c r="E917" t="n">
+        <v>1506</v>
+      </c>
+      <c r="F917" t="inlineStr"/>
+      <c r="G917" t="n">
+        <v>2135517</v>
+      </c>
+      <c r="H917" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I917" t="n">
+        <v>4</v>
+      </c>
+      <c r="J917" t="n">
+        <v>14</v>
+      </c>
+      <c r="K917" t="n">
+        <v>0</v>
+      </c>
+      <c r="L917" t="n">
+        <v>0</v>
+      </c>
+      <c r="M917" t="n">
+        <v>0</v>
+      </c>
+      <c r="N917" t="n">
+        <v>16</v>
+      </c>
+      <c r="O917" t="n">
+        <v>0</v>
+      </c>
+      <c r="P917" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q917" t="n">
+        <v>0</v>
+      </c>
+      <c r="R917" t="inlineStr"/>
+    </row>
+    <row r="918">
+      <c r="A918" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B918" t="n">
+        <v>1526.800048828125</v>
+      </c>
+      <c r="C918" t="n">
+        <v>1575</v>
+      </c>
+      <c r="D918" t="n">
+        <v>1405</v>
+      </c>
+      <c r="E918" t="n">
+        <v>1432.599975585938</v>
+      </c>
+      <c r="F918" t="inlineStr"/>
+      <c r="G918" t="n">
+        <v>1649706</v>
+      </c>
+      <c r="H918" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I918" t="n">
+        <v>4</v>
+      </c>
+      <c r="J918" t="n">
+        <v>21</v>
+      </c>
+      <c r="K918" t="n">
+        <v>0</v>
+      </c>
+      <c r="L918" t="n">
+        <v>0</v>
+      </c>
+      <c r="M918" t="n">
+        <v>0</v>
+      </c>
+      <c r="N918" t="n">
+        <v>17</v>
+      </c>
+      <c r="O918" t="n">
+        <v>0</v>
+      </c>
+      <c r="P918" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q918" t="n">
+        <v>0</v>
+      </c>
+      <c r="R918" t="inlineStr"/>
+    </row>
+    <row r="919">
+      <c r="A919" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B919" t="n">
+        <v>1420</v>
+      </c>
+      <c r="C919" t="n">
+        <v>1515</v>
+      </c>
+      <c r="D919" t="n">
+        <v>1415.800048828125</v>
+      </c>
+      <c r="E919" t="n">
+        <v>1434.800048828125</v>
+      </c>
+      <c r="F919" t="inlineStr"/>
+      <c r="G919" t="n">
+        <v>912653</v>
+      </c>
+      <c r="H919" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I919" t="n">
+        <v>4</v>
+      </c>
+      <c r="J919" t="n">
+        <v>28</v>
+      </c>
+      <c r="K919" t="n">
+        <v>0</v>
+      </c>
+      <c r="L919" t="n">
+        <v>0</v>
+      </c>
+      <c r="M919" t="n">
+        <v>0</v>
+      </c>
+      <c r="N919" t="n">
+        <v>18</v>
+      </c>
+      <c r="O919" t="n">
+        <v>0</v>
+      </c>
+      <c r="P919" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q919" t="n">
+        <v>0</v>
+      </c>
+      <c r="R919" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
